--- a/Code/Results/Cases/Case_0_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_114/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002102551452850321</v>
+        <v>0.2050900623679297</v>
       </c>
       <c r="D2">
-        <v>0.1087082120441067</v>
+        <v>0.0374661289536391</v>
       </c>
       <c r="E2">
-        <v>0.1716545211934317</v>
+        <v>0.1056517465228595</v>
       </c>
       <c r="F2">
-        <v>1.161034984270543</v>
+        <v>3.506972899598253</v>
       </c>
       <c r="G2">
-        <v>1.494324406737576</v>
+        <v>3.009965487123139</v>
       </c>
       <c r="H2">
-        <v>0.7239815324736867</v>
+        <v>2.350412002670367</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3029282729290372</v>
+        <v>0.2083103321579927</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5543213836110539</v>
+        <v>0.1919518520350607</v>
       </c>
       <c r="M2">
-        <v>33.4654855644041</v>
+        <v>11.74440127962214</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005663837601684207</v>
+        <v>0.2126857326095148</v>
       </c>
       <c r="D3">
-        <v>0.09293941976671505</v>
+        <v>0.03347376848962824</v>
       </c>
       <c r="E3">
-        <v>0.1460197477134209</v>
+        <v>0.1016751828309026</v>
       </c>
       <c r="F3">
-        <v>0.9744695969132948</v>
+        <v>3.612214181360372</v>
       </c>
       <c r="G3">
-        <v>1.214978363934051</v>
+        <v>3.094436563046983</v>
       </c>
       <c r="H3">
-        <v>0.6332306187945562</v>
+        <v>2.411908727009376</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2481952546127673</v>
+        <v>0.2055319741289452</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4708452154783629</v>
+        <v>0.1724249042778325</v>
       </c>
       <c r="M3">
-        <v>28.39034844760721</v>
+        <v>10.48162408359542</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009267895607299792</v>
+        <v>0.217589545739024</v>
       </c>
       <c r="D4">
-        <v>0.08367400631526323</v>
+        <v>0.03101279777876442</v>
       </c>
       <c r="E4">
-        <v>0.1317779561952932</v>
+        <v>0.09930655409419131</v>
       </c>
       <c r="F4">
-        <v>0.8990327980443169</v>
+        <v>3.681911354656293</v>
       </c>
       <c r="G4">
-        <v>1.08679175674348</v>
+        <v>3.15124241857319</v>
       </c>
       <c r="H4">
-        <v>0.597982600839714</v>
+        <v>2.452604518884513</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2196835650630646</v>
+        <v>0.2041113387331848</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4226301083010213</v>
+        <v>0.1604613179831773</v>
       </c>
       <c r="M4">
-        <v>25.44659136984558</v>
+        <v>9.703913012778685</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01101590929970087</v>
+        <v>0.2196477257750722</v>
       </c>
       <c r="D5">
-        <v>0.07997716835205892</v>
+        <v>0.03000734246437986</v>
       </c>
       <c r="E5">
-        <v>0.1262558759091945</v>
+        <v>0.09835927004155565</v>
       </c>
       <c r="F5">
-        <v>0.875980906282436</v>
+        <v>3.711573909939645</v>
       </c>
       <c r="G5">
-        <v>1.043032820845667</v>
+        <v>3.17561465223018</v>
       </c>
       <c r="H5">
-        <v>0.5876644673015647</v>
+        <v>2.469918330776011</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2090246071983728</v>
+        <v>0.2036024896885351</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4035471778956747</v>
+        <v>0.1555918902084557</v>
       </c>
       <c r="M5">
-        <v>24.27885175218802</v>
+        <v>9.386351817242883</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01132125192797595</v>
+        <v>0.2199930838801158</v>
       </c>
       <c r="D6">
-        <v>0.07936745129084244</v>
+        <v>0.02984022629672722</v>
       </c>
       <c r="E6">
-        <v>0.1253537262300561</v>
+        <v>0.09820304726708429</v>
       </c>
       <c r="F6">
-        <v>0.8725671597014042</v>
+        <v>3.716574997291119</v>
       </c>
       <c r="G6">
-        <v>1.036221883247592</v>
+        <v>3.179734986700581</v>
       </c>
       <c r="H6">
-        <v>0.5861695915438503</v>
+        <v>2.472837117911226</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2073052000740461</v>
+        <v>0.2035221808420005</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4004079214190455</v>
+        <v>0.1547836581691087</v>
       </c>
       <c r="M6">
-        <v>24.08660333368545</v>
+        <v>9.333581314464823</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.009290422323099179</v>
+        <v>0.2176170614802793</v>
       </c>
       <c r="D7">
-        <v>0.08362385906361425</v>
+        <v>0.03099924855482072</v>
       </c>
       <c r="E7">
-        <v>0.1317024470052672</v>
+        <v>0.09929370651608593</v>
       </c>
       <c r="F7">
-        <v>0.8986931295779783</v>
+        <v>3.682306312749915</v>
       </c>
       <c r="G7">
-        <v>1.086169931909069</v>
+        <v>3.151566182273001</v>
       </c>
       <c r="H7">
-        <v>0.5978282740555869</v>
+        <v>2.452835074553604</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2195362771296772</v>
+        <v>0.2041041946349509</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.42237067944194</v>
+        <v>0.1603956244594968</v>
       </c>
       <c r="M7">
-        <v>25.43072642429553</v>
+        <v>9.699632908016667</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.002980378786796578</v>
+        <v>0.207658911217024</v>
       </c>
       <c r="D8">
-        <v>0.1031664478611063</v>
+        <v>0.03609146266961716</v>
       </c>
       <c r="E8">
-        <v>0.1624360895001828</v>
+        <v>0.1042652218304525</v>
       </c>
       <c r="F8">
-        <v>1.087047824185476</v>
+        <v>3.542195926231472</v>
       </c>
       <c r="G8">
-        <v>1.387277619415215</v>
+        <v>3.038054300025465</v>
       </c>
       <c r="H8">
-        <v>0.6876503195397561</v>
+        <v>2.371001454607352</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2827665094539924</v>
+        <v>0.2072921100795782</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5247650363949106</v>
+        <v>0.1852130944790531</v>
       </c>
       <c r="M8">
-        <v>31.67157687458973</v>
+        <v>11.30945743798952</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.007863580729281061</v>
+        <v>0.1900593136582742</v>
       </c>
       <c r="D9">
-        <v>0.1466266437330717</v>
+        <v>0.04600895169735963</v>
       </c>
       <c r="E9">
-        <v>0.2418839475325782</v>
+        <v>0.1146140577567394</v>
       </c>
       <c r="F9">
-        <v>1.928930658520315</v>
+        <v>3.308494683596734</v>
       </c>
       <c r="G9">
-        <v>2.503732052296129</v>
+        <v>2.855519085681635</v>
       </c>
       <c r="H9">
-        <v>1.109376316639981</v>
+        <v>2.234211633806439</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4720137063964103</v>
+        <v>0.2158876256291791</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7646766692712532</v>
+        <v>0.2341254932093477</v>
       </c>
       <c r="M9">
-        <v>46.136265689639</v>
+        <v>14.44995130438139</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04264713509129603</v>
+        <v>0.1783374786089951</v>
       </c>
       <c r="D10">
-        <v>0.1871167463658594</v>
+        <v>0.05326620583808506</v>
       </c>
       <c r="E10">
-        <v>0.3364426700186556</v>
+        <v>0.1226147641347168</v>
       </c>
       <c r="F10">
-        <v>3.368774944363821</v>
+        <v>3.162886337413639</v>
       </c>
       <c r="G10">
-        <v>4.241102818242382</v>
+        <v>2.747046645138596</v>
       </c>
       <c r="H10">
-        <v>1.841602106036476</v>
+        <v>2.148691919974738</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7351096334744227</v>
+        <v>0.2237511272690256</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.01387816699075</v>
+        <v>0.2702744150277852</v>
       </c>
       <c r="M10">
-        <v>60.89684906363266</v>
+        <v>16.75113314888813</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08820803231415564</v>
+        <v>0.1732748314417627</v>
       </c>
       <c r="D11">
-        <v>0.2124308749638573</v>
+        <v>0.056564321139291</v>
       </c>
       <c r="E11">
-        <v>0.4139254376971877</v>
+        <v>0.1263485440614005</v>
       </c>
       <c r="F11">
-        <v>4.76506468083322</v>
+        <v>3.10254962392915</v>
       </c>
       <c r="G11">
-        <v>5.85722188344738</v>
+        <v>2.703538948689555</v>
       </c>
       <c r="H11">
-        <v>2.553316584615288</v>
+        <v>2.113160708408998</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9741085912843062</v>
+        <v>0.2276929129800749</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.194940466078279</v>
+        <v>0.2867815857658513</v>
       </c>
       <c r="M11">
-        <v>71.39511237342811</v>
+        <v>17.79762128552102</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1269638257214094</v>
+        <v>0.171397185341867</v>
       </c>
       <c r="D12">
-        <v>0.2263393281887573</v>
+        <v>0.05781300445003978</v>
       </c>
       <c r="E12">
-        <v>0.4679842115452573</v>
+        <v>0.1277766589060434</v>
       </c>
       <c r="F12">
-        <v>5.808508233920435</v>
+        <v>3.080570926390806</v>
       </c>
       <c r="G12">
-        <v>7.040776809053398</v>
+        <v>2.68792655599492</v>
       </c>
       <c r="H12">
-        <v>3.084739476150844</v>
+        <v>2.10020137011989</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.150612628660838</v>
+        <v>0.2292404888941775</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.311117137723699</v>
+        <v>0.2930428251684702</v>
       </c>
       <c r="M12">
-        <v>77.99687712954341</v>
+        <v>18.19393332172814</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.115840660921724</v>
+        <v>0.1717998033736166</v>
       </c>
       <c r="D13">
-        <v>0.2228155416940325</v>
+        <v>0.05754408518109244</v>
       </c>
       <c r="E13">
-        <v>0.4531592488348863</v>
+        <v>0.1274684455602895</v>
       </c>
       <c r="F13">
-        <v>5.518310496114538</v>
+        <v>3.085265420067699</v>
       </c>
       <c r="G13">
-        <v>6.713261611942528</v>
+        <v>2.691250195042102</v>
       </c>
       <c r="H13">
-        <v>2.937013062153312</v>
+        <v>2.102970181872394</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.101513435604872</v>
+        <v>0.2289047077454995</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.280007556399184</v>
+        <v>0.2916938738903525</v>
       </c>
       <c r="M13">
-        <v>76.24098033736499</v>
+        <v>18.10857781323119</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09052396096568582</v>
+        <v>0.17311956131541</v>
       </c>
       <c r="D14">
-        <v>0.2134061719752225</v>
+        <v>0.05666705457126398</v>
       </c>
       <c r="E14">
-        <v>0.4173719263849023</v>
+        <v>0.1264657470875576</v>
       </c>
       <c r="F14">
-        <v>4.830235473831067</v>
+        <v>3.100723874814449</v>
       </c>
       <c r="G14">
-        <v>5.931655236339196</v>
+        <v>2.702237072934196</v>
       </c>
       <c r="H14">
-        <v>2.586525972269783</v>
+        <v>2.112084541835742</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.9851439195606986</v>
+        <v>0.2278191178680089</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.202579291472091</v>
+        <v>0.2872964868078896</v>
       </c>
       <c r="M14">
-        <v>71.83276293614068</v>
+        <v>17.83022505416807</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07937562057174219</v>
+        <v>0.1739331120608512</v>
       </c>
       <c r="D15">
-        <v>0.2084996894631814</v>
+        <v>0.05612982345265038</v>
       </c>
       <c r="E15">
-        <v>0.4004553914172462</v>
+        <v>0.1258534369026876</v>
       </c>
       <c r="F15">
-        <v>4.51248147860764</v>
+        <v>3.110306492698925</v>
       </c>
       <c r="G15">
-        <v>5.568011525979728</v>
+        <v>2.709079960983473</v>
       </c>
       <c r="H15">
-        <v>2.424590381487405</v>
+        <v>2.117732209237914</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.9312860497888522</v>
+        <v>0.2271613891904707</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.164764521031913</v>
+        <v>0.2846043461485408</v>
       </c>
       <c r="M15">
-        <v>69.66172311266024</v>
+        <v>17.65973222341489</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04076990874998687</v>
+        <v>0.178673819375188</v>
       </c>
       <c r="D16">
-        <v>0.1857044236871843</v>
+        <v>0.05305061993514926</v>
       </c>
       <c r="E16">
-        <v>0.3326505682916903</v>
+        <v>0.1223727044737473</v>
       </c>
       <c r="F16">
-        <v>3.304535676629612</v>
+        <v>3.166950003738862</v>
       </c>
       <c r="G16">
-        <v>4.165543356933426</v>
+        <v>2.750009436149185</v>
       </c>
       <c r="H16">
-        <v>1.808865276766255</v>
+        <v>2.151082726672087</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7239026623148987</v>
+        <v>0.2235010677541567</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.004524149515674</v>
+        <v>0.2691970053630257</v>
       </c>
       <c r="M16">
-        <v>60.34866719309332</v>
+        <v>16.68274248725231</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02735817608809121</v>
+        <v>0.1816516419625991</v>
       </c>
       <c r="D17">
-        <v>0.1740509428858417</v>
+        <v>0.051160953710081</v>
       </c>
       <c r="E17">
-        <v>0.3029482094847324</v>
+        <v>0.1202619771590463</v>
       </c>
       <c r="F17">
-        <v>2.817935939667677</v>
+        <v>3.203225078274414</v>
       </c>
       <c r="G17">
-        <v>3.588495961265153</v>
+        <v>2.776629929482681</v>
       </c>
       <c r="H17">
-        <v>1.561002585295427</v>
+        <v>2.172413341881935</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6378974193313809</v>
+        <v>0.2213506846093765</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9295096641295686</v>
+        <v>0.2597620832743814</v>
       </c>
       <c r="M17">
-        <v>55.93463225642131</v>
+        <v>16.083359111444</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02156158887389559</v>
+        <v>0.1833897469340826</v>
       </c>
       <c r="D18">
-        <v>0.1678202767438677</v>
+        <v>0.05007374797528996</v>
       </c>
       <c r="E18">
-        <v>0.2880953875660808</v>
+        <v>0.1190567681842012</v>
       </c>
       <c r="F18">
-        <v>2.586727600257007</v>
+        <v>3.22464370429239</v>
       </c>
       <c r="G18">
-        <v>3.31088246995111</v>
+        <v>2.792489272936422</v>
       </c>
       <c r="H18">
-        <v>1.44333906611962</v>
+        <v>2.184998891306691</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5961321265971691</v>
+        <v>0.220148005881569</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8907851153108055</v>
+        <v>0.2543411966325948</v>
       </c>
       <c r="M18">
-        <v>53.64428390730933</v>
+        <v>15.73857347315288</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01984733036650521</v>
+        <v>0.1839825710417848</v>
       </c>
       <c r="D19">
-        <v>0.165774017670941</v>
+        <v>0.0497055772033832</v>
       </c>
       <c r="E19">
-        <v>0.2833559514047295</v>
+        <v>0.1186502014678439</v>
       </c>
       <c r="F19">
-        <v>2.51481806266402</v>
+        <v>3.231990235015104</v>
       </c>
       <c r="G19">
-        <v>3.224001250883134</v>
+        <v>2.797952374625424</v>
       </c>
       <c r="H19">
-        <v>1.406764884713169</v>
+        <v>2.189314224288495</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5829884862875332</v>
+        <v>0.2197465944380355</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.8782504651759666</v>
+        <v>0.2525067413941144</v>
       </c>
       <c r="M19">
-        <v>52.90132276585473</v>
+        <v>15.62182651725129</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0285652169051529</v>
+        <v>0.1813320201455859</v>
       </c>
       <c r="D20">
-        <v>0.1752377964585605</v>
+        <v>0.05136214339782441</v>
       </c>
       <c r="E20">
-        <v>0.3058534708794483</v>
+        <v>0.1204857496135929</v>
       </c>
       <c r="F20">
-        <v>2.864154938239437</v>
+        <v>3.199306031679356</v>
       </c>
       <c r="G20">
-        <v>3.643700565352475</v>
+        <v>2.77373925384677</v>
       </c>
       <c r="H20">
-        <v>1.584534125521202</v>
+        <v>2.170109803681925</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6461663821962702</v>
+        <v>0.2215760432034699</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9369874721740814</v>
+        <v>0.2607658343249284</v>
       </c>
       <c r="M20">
-        <v>56.3760171758027</v>
+        <v>16.14716769943408</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0968054208171294</v>
+        <v>0.1727308396150633</v>
       </c>
       <c r="D21">
-        <v>0.215945822215275</v>
+        <v>0.05692466441909971</v>
       </c>
       <c r="E21">
-        <v>0.4265587854270336</v>
+        <v>0.1267598726412018</v>
       </c>
       <c r="F21">
-        <v>5.004963179606619</v>
+        <v>3.096159583559853</v>
       </c>
       <c r="G21">
-        <v>6.130855026797121</v>
+        <v>2.698986345493466</v>
       </c>
       <c r="H21">
-        <v>2.675552905589342</v>
+        <v>2.109393897313737</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.014711254473269</v>
+        <v>0.228136471311899</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.222781278039733</v>
+        <v>0.2885878147012022</v>
       </c>
       <c r="M21">
-        <v>72.98789054804257</v>
+        <v>17.91198255305932</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0968054208171294</v>
+        <v>0.1673398639472481</v>
       </c>
       <c r="D22">
-        <v>0.215945822215275</v>
+        <v>0.06055879945405707</v>
       </c>
       <c r="E22">
-        <v>0.4265587854270336</v>
+        <v>0.1309435656546043</v>
       </c>
       <c r="F22">
-        <v>5.004963179606619</v>
+        <v>3.033825786424018</v>
       </c>
       <c r="G22">
-        <v>6.130855026797121</v>
+        <v>2.6551729611366</v>
       </c>
       <c r="H22">
-        <v>2.675552905589342</v>
+        <v>2.072606252795282</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.014711254473269</v>
+        <v>0.2327453873880501</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.222781278039733</v>
+        <v>0.3068319924022092</v>
       </c>
       <c r="M22">
-        <v>72.98789054804257</v>
+        <v>19.06560467370832</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0968054208171294</v>
+        <v>0.1701958129248951</v>
       </c>
       <c r="D23">
-        <v>0.215945822215275</v>
+        <v>0.05861923410014924</v>
       </c>
       <c r="E23">
-        <v>0.4265587854270336</v>
+        <v>0.1287028053311445</v>
       </c>
       <c r="F23">
-        <v>5.004963179606619</v>
+        <v>3.066622739519445</v>
       </c>
       <c r="G23">
-        <v>6.130855026797121</v>
+        <v>2.678087612445012</v>
       </c>
       <c r="H23">
-        <v>2.675552905589342</v>
+        <v>2.091972122301001</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.014711254473269</v>
+        <v>0.2302552671590661</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.222781278039733</v>
+        <v>0.2970887012894536</v>
       </c>
       <c r="M23">
-        <v>72.98789054804257</v>
+        <v>18.4498480588046</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02801388482525535</v>
+        <v>0.1814764398780646</v>
       </c>
       <c r="D24">
-        <v>0.1746998294990902</v>
+        <v>0.05127118808395892</v>
       </c>
       <c r="E24">
-        <v>0.3045334606733832</v>
+        <v>0.1203845563578341</v>
       </c>
       <c r="F24">
-        <v>2.843116212531243</v>
+        <v>3.201076078723531</v>
       </c>
       <c r="G24">
-        <v>3.618582929319473</v>
+        <v>2.775044401796691</v>
       </c>
       <c r="H24">
-        <v>1.573822277244432</v>
+        <v>2.17115023022879</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6424053972029782</v>
+        <v>0.2214740540958502</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9335937879247638</v>
+        <v>0.2603120280566316</v>
       </c>
       <c r="M24">
-        <v>56.17573798493834</v>
+        <v>16.11832044107683</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.003517480762550207</v>
+        <v>0.1946106935695582</v>
       </c>
       <c r="D25">
-        <v>0.1339782867111268</v>
+        <v>0.04333206439156356</v>
       </c>
       <c r="E25">
-        <v>0.2169210925722567</v>
+        <v>0.1117470877665028</v>
       </c>
       <c r="F25">
-        <v>1.619310654491855</v>
+        <v>3.367213810894</v>
       </c>
       <c r="G25">
-        <v>2.110303126192804</v>
+        <v>2.90048760628855</v>
       </c>
       <c r="H25">
-        <v>0.9529728695564472</v>
+        <v>2.268626304455552</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4089891954801317</v>
+        <v>0.2132994851053667</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.692698534441206</v>
+        <v>0.2208609342761889</v>
       </c>
       <c r="M25">
-        <v>41.82016608598121</v>
+        <v>13.60174103047189</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_114/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_114/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2050900623679297</v>
+        <v>0.002102551452635382</v>
       </c>
       <c r="D2">
-        <v>0.0374661289536391</v>
+        <v>0.1087082120442204</v>
       </c>
       <c r="E2">
-        <v>0.1056517465228595</v>
+        <v>0.171654521193453</v>
       </c>
       <c r="F2">
-        <v>3.506972899598253</v>
+        <v>1.161034984270543</v>
       </c>
       <c r="G2">
-        <v>3.009965487123139</v>
+        <v>1.494324406737661</v>
       </c>
       <c r="H2">
-        <v>2.350412002670367</v>
+        <v>0.7239815324736583</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2083103321579927</v>
+        <v>0.3029282729290372</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1919518520350607</v>
+        <v>0.5543213836110255</v>
       </c>
       <c r="M2">
-        <v>11.74440127962214</v>
+        <v>33.4654855644041</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2126857326095148</v>
+        <v>0.005663837601685984</v>
       </c>
       <c r="D3">
-        <v>0.03347376848962824</v>
+        <v>0.0929394197667861</v>
       </c>
       <c r="E3">
-        <v>0.1016751828309026</v>
+        <v>0.1460197477134209</v>
       </c>
       <c r="F3">
-        <v>3.612214181360372</v>
+        <v>0.9744695969133232</v>
       </c>
       <c r="G3">
-        <v>3.094436563046983</v>
+        <v>1.214978363934023</v>
       </c>
       <c r="H3">
-        <v>2.411908727009376</v>
+        <v>0.6332306187946699</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2055319741289452</v>
+        <v>0.2481952546128667</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1724249042778325</v>
+        <v>0.4708452154784339</v>
       </c>
       <c r="M3">
-        <v>10.48162408359542</v>
+        <v>28.39034844760721</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.217589545739024</v>
+        <v>0.009267895607051102</v>
       </c>
       <c r="D4">
-        <v>0.03101279777876442</v>
+        <v>0.08367400631520638</v>
       </c>
       <c r="E4">
-        <v>0.09930655409419131</v>
+        <v>0.1317779561952968</v>
       </c>
       <c r="F4">
-        <v>3.681911354656293</v>
+        <v>0.8990327980442743</v>
       </c>
       <c r="G4">
-        <v>3.15124241857319</v>
+        <v>1.086791756743423</v>
       </c>
       <c r="H4">
-        <v>2.452604518884513</v>
+        <v>0.5979826008397993</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2041113387331848</v>
+        <v>0.2196835650631783</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1604613179831773</v>
+        <v>0.422630108301135</v>
       </c>
       <c r="M4">
-        <v>9.703913012778685</v>
+        <v>25.44659136984569</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2196477257750722</v>
+        <v>0.01101590929958896</v>
       </c>
       <c r="D5">
-        <v>0.03000734246437986</v>
+        <v>0.07997716835205892</v>
       </c>
       <c r="E5">
-        <v>0.09835927004155565</v>
+        <v>0.1262558759092194</v>
       </c>
       <c r="F5">
-        <v>3.711573909939645</v>
+        <v>0.8759809062824502</v>
       </c>
       <c r="G5">
-        <v>3.17561465223018</v>
+        <v>1.04303282084571</v>
       </c>
       <c r="H5">
-        <v>2.469918330776011</v>
+        <v>0.5876644673016074</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2036024896885351</v>
+        <v>0.2090246071983728</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1555918902084557</v>
+        <v>0.4035471778956605</v>
       </c>
       <c r="M5">
-        <v>9.386351817242883</v>
+        <v>24.27885175218785</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2199930838801158</v>
+        <v>0.01132125192810207</v>
       </c>
       <c r="D6">
-        <v>0.02984022629672722</v>
+        <v>0.07936745129067901</v>
       </c>
       <c r="E6">
-        <v>0.09820304726708429</v>
+        <v>0.1253537262300704</v>
       </c>
       <c r="F6">
-        <v>3.716574997291119</v>
+        <v>0.87256715970139</v>
       </c>
       <c r="G6">
-        <v>3.179734986700581</v>
+        <v>1.036221883247492</v>
       </c>
       <c r="H6">
-        <v>2.472837117911226</v>
+        <v>0.5861695915439498</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2035221808420005</v>
+        <v>0.2073052000740034</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1547836581691087</v>
+        <v>0.4004079214190028</v>
       </c>
       <c r="M6">
-        <v>9.333581314464823</v>
+        <v>24.08660333368562</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2176170614802793</v>
+        <v>0.009290422323212866</v>
       </c>
       <c r="D7">
-        <v>0.03099924855482072</v>
+        <v>0.08362385906350767</v>
       </c>
       <c r="E7">
-        <v>0.09929370651608593</v>
+        <v>0.1317024470052743</v>
       </c>
       <c r="F7">
-        <v>3.682306312749915</v>
+        <v>0.8986931295779783</v>
       </c>
       <c r="G7">
-        <v>3.151566182273001</v>
+        <v>1.086169931909211</v>
       </c>
       <c r="H7">
-        <v>2.452835074553604</v>
+        <v>0.5978282740555585</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2041041946349509</v>
+        <v>0.2195362771296914</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1603956244594968</v>
+        <v>0.42237067944194</v>
       </c>
       <c r="M7">
-        <v>9.699632908016667</v>
+        <v>25.43072642429553</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.207658911217024</v>
+        <v>0.002980378786901383</v>
       </c>
       <c r="D8">
-        <v>0.03609146266961716</v>
+        <v>0.1031664478611205</v>
       </c>
       <c r="E8">
-        <v>0.1042652218304525</v>
+        <v>0.1624360895001615</v>
       </c>
       <c r="F8">
-        <v>3.542195926231472</v>
+        <v>1.087047824185447</v>
       </c>
       <c r="G8">
-        <v>3.038054300025465</v>
+        <v>1.387277619415215</v>
       </c>
       <c r="H8">
-        <v>2.371001454607352</v>
+        <v>0.6876503195396424</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2072921100795782</v>
+        <v>0.2827665094539213</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1852130944790531</v>
+        <v>0.5247650363948964</v>
       </c>
       <c r="M8">
-        <v>11.30945743798952</v>
+        <v>31.67157687458956</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1900593136582742</v>
+        <v>0.007863580729277508</v>
       </c>
       <c r="D9">
-        <v>0.04600895169735963</v>
+        <v>0.1466266437331427</v>
       </c>
       <c r="E9">
-        <v>0.1146140577567394</v>
+        <v>0.2418839475325854</v>
       </c>
       <c r="F9">
-        <v>3.308494683596734</v>
+        <v>1.928930658520301</v>
       </c>
       <c r="G9">
-        <v>2.855519085681635</v>
+        <v>2.503732052296101</v>
       </c>
       <c r="H9">
-        <v>2.234211633806439</v>
+        <v>1.109376316640066</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2158876256291791</v>
+        <v>0.4720137063963534</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2341254932093477</v>
+        <v>0.7646766692712106</v>
       </c>
       <c r="M9">
-        <v>14.44995130438139</v>
+        <v>46.13626568963866</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1783374786089951</v>
+        <v>0.04264713509109797</v>
       </c>
       <c r="D10">
-        <v>0.05326620583808506</v>
+        <v>0.1871167463659447</v>
       </c>
       <c r="E10">
-        <v>0.1226147641347168</v>
+        <v>0.3364426700186485</v>
       </c>
       <c r="F10">
-        <v>3.162886337413639</v>
+        <v>3.368774944363892</v>
       </c>
       <c r="G10">
-        <v>2.747046645138596</v>
+        <v>4.24110281824241</v>
       </c>
       <c r="H10">
-        <v>2.148691919974738</v>
+        <v>1.84160210603639</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2237511272690256</v>
+        <v>0.7351096334744085</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2702744150277852</v>
+        <v>1.013878166990764</v>
       </c>
       <c r="M10">
-        <v>16.75113314888813</v>
+        <v>60.89684906363294</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1732748314417627</v>
+        <v>0.08820803231397445</v>
       </c>
       <c r="D11">
-        <v>0.056564321139291</v>
+        <v>0.2124308749638431</v>
       </c>
       <c r="E11">
-        <v>0.1263485440614005</v>
+        <v>0.4139254376971664</v>
       </c>
       <c r="F11">
-        <v>3.10254962392915</v>
+        <v>4.765064680832978</v>
       </c>
       <c r="G11">
-        <v>2.703538948689555</v>
+        <v>5.857221883447039</v>
       </c>
       <c r="H11">
-        <v>2.113160708408998</v>
+        <v>2.553316584615175</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2276929129800749</v>
+        <v>0.9741085912842635</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2867815857658513</v>
+        <v>1.194940466078322</v>
       </c>
       <c r="M11">
-        <v>17.79762128552102</v>
+        <v>71.39511237342708</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.171397185341867</v>
+        <v>0.1269638257214334</v>
       </c>
       <c r="D12">
-        <v>0.05781300445003978</v>
+        <v>0.2263393281885726</v>
       </c>
       <c r="E12">
-        <v>0.1277766589060434</v>
+        <v>0.4679842115452715</v>
       </c>
       <c r="F12">
-        <v>3.080570926390806</v>
+        <v>5.808508233920307</v>
       </c>
       <c r="G12">
-        <v>2.68792655599492</v>
+        <v>7.040776809053426</v>
       </c>
       <c r="H12">
-        <v>2.10020137011989</v>
+        <v>3.084739476150787</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2292404888941775</v>
+        <v>1.150612628660923</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2930428251684702</v>
+        <v>1.311117137723741</v>
       </c>
       <c r="M12">
-        <v>18.19393332172814</v>
+        <v>77.9968771295438</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1717998033736166</v>
+        <v>0.1158406609213332</v>
       </c>
       <c r="D13">
-        <v>0.05754408518109244</v>
+        <v>0.2228155416940467</v>
       </c>
       <c r="E13">
-        <v>0.1274684455602895</v>
+        <v>0.4531592488348792</v>
       </c>
       <c r="F13">
-        <v>3.085265420067699</v>
+        <v>5.518310496114424</v>
       </c>
       <c r="G13">
-        <v>2.691250195042102</v>
+        <v>6.713261611942301</v>
       </c>
       <c r="H13">
-        <v>2.102970181872394</v>
+        <v>2.93701306215317</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2289047077454995</v>
+        <v>1.101513435604815</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2916938738903525</v>
+        <v>1.28000755639917</v>
       </c>
       <c r="M13">
-        <v>18.10857781323119</v>
+        <v>76.24098033736482</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.17311956131541</v>
+        <v>0.0905239609654922</v>
       </c>
       <c r="D14">
-        <v>0.05666705457126398</v>
+        <v>0.2134061719750235</v>
       </c>
       <c r="E14">
-        <v>0.1264657470875576</v>
+        <v>0.4173719263848952</v>
       </c>
       <c r="F14">
-        <v>3.100723874814449</v>
+        <v>4.830235473830967</v>
       </c>
       <c r="G14">
-        <v>2.702237072934196</v>
+        <v>5.931655236339111</v>
       </c>
       <c r="H14">
-        <v>2.112084541835742</v>
+        <v>2.586525972269726</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2278191178680089</v>
+        <v>0.9851439195606417</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2872964868078896</v>
+        <v>1.202579291472034</v>
       </c>
       <c r="M14">
-        <v>17.83022505416807</v>
+        <v>71.83276293614006</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1739331120608512</v>
+        <v>0.07937562057155034</v>
       </c>
       <c r="D15">
-        <v>0.05612982345265038</v>
+        <v>0.2084996894631956</v>
       </c>
       <c r="E15">
-        <v>0.1258534369026876</v>
+        <v>0.4004553914172249</v>
       </c>
       <c r="F15">
-        <v>3.110306492698925</v>
+        <v>4.512481478607569</v>
       </c>
       <c r="G15">
-        <v>2.709079960983473</v>
+        <v>5.568011525979614</v>
       </c>
       <c r="H15">
-        <v>2.117732209237914</v>
+        <v>2.424590381487377</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2271613891904707</v>
+        <v>0.9312860497888806</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2846043461485408</v>
+        <v>1.164764521031913</v>
       </c>
       <c r="M15">
-        <v>17.65973222341489</v>
+        <v>69.66172311266007</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.178673819375188</v>
+        <v>0.04076990874979636</v>
       </c>
       <c r="D16">
-        <v>0.05305061993514926</v>
+        <v>0.185704423687298</v>
       </c>
       <c r="E16">
-        <v>0.1223727044737473</v>
+        <v>0.3326505682916832</v>
       </c>
       <c r="F16">
-        <v>3.166950003738862</v>
+        <v>3.304535676629499</v>
       </c>
       <c r="G16">
-        <v>2.750009436149185</v>
+        <v>4.165543356933256</v>
       </c>
       <c r="H16">
-        <v>2.151082726672087</v>
+        <v>1.808865276766142</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2235010677541567</v>
+        <v>0.7239026623148561</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2691970053630257</v>
+        <v>1.00452414951566</v>
       </c>
       <c r="M16">
-        <v>16.68274248725231</v>
+        <v>60.34866719309269</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1816516419625991</v>
+        <v>0.02735817608790736</v>
       </c>
       <c r="D17">
-        <v>0.051160953710081</v>
+        <v>0.1740509428858417</v>
       </c>
       <c r="E17">
-        <v>0.1202619771590463</v>
+        <v>0.3029482094847324</v>
       </c>
       <c r="F17">
-        <v>3.203225078274414</v>
+        <v>2.817935939667663</v>
       </c>
       <c r="G17">
-        <v>2.776629929482681</v>
+        <v>3.588495961265238</v>
       </c>
       <c r="H17">
-        <v>2.172413341881935</v>
+        <v>1.561002585295483</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2213506846093765</v>
+        <v>0.6378974193313525</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2597620832743814</v>
+        <v>0.9295096641296112</v>
       </c>
       <c r="M17">
-        <v>16.083359111444</v>
+        <v>55.93463225642131</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1833897469340826</v>
+        <v>0.02156158887389026</v>
       </c>
       <c r="D18">
-        <v>0.05007374797528996</v>
+        <v>0.1678202767437398</v>
       </c>
       <c r="E18">
-        <v>0.1190567681842012</v>
+        <v>0.2880953875660879</v>
       </c>
       <c r="F18">
-        <v>3.22464370429239</v>
+        <v>2.586727600257063</v>
       </c>
       <c r="G18">
-        <v>2.792489272936422</v>
+        <v>3.31088246995111</v>
       </c>
       <c r="H18">
-        <v>2.184998891306691</v>
+        <v>1.443339066119648</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.220148005881569</v>
+        <v>0.5961321265971833</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2543411966325948</v>
+        <v>0.8907851153107345</v>
       </c>
       <c r="M18">
-        <v>15.73857347315288</v>
+        <v>53.6442839073095</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1839825710417848</v>
+        <v>0.01984733036603181</v>
       </c>
       <c r="D19">
-        <v>0.0497055772033832</v>
+        <v>0.1657740176708558</v>
       </c>
       <c r="E19">
-        <v>0.1186502014678439</v>
+        <v>0.2833559514047295</v>
       </c>
       <c r="F19">
-        <v>3.231990235015104</v>
+        <v>2.514818062664062</v>
       </c>
       <c r="G19">
-        <v>2.797952374625424</v>
+        <v>3.224001250883163</v>
       </c>
       <c r="H19">
-        <v>2.189314224288495</v>
+        <v>1.406764884713084</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2197465944380355</v>
+        <v>0.582988486287519</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2525067413941144</v>
+        <v>0.8782504651758956</v>
       </c>
       <c r="M19">
-        <v>15.62182651725129</v>
+        <v>52.90132276585479</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1813320201455859</v>
+        <v>0.02856521690496283</v>
       </c>
       <c r="D20">
-        <v>0.05136214339782441</v>
+        <v>0.1752377964586742</v>
       </c>
       <c r="E20">
-        <v>0.1204857496135929</v>
+        <v>0.3058534708794411</v>
       </c>
       <c r="F20">
-        <v>3.199306031679356</v>
+        <v>2.86415493823948</v>
       </c>
       <c r="G20">
-        <v>2.77373925384677</v>
+        <v>3.643700565352589</v>
       </c>
       <c r="H20">
-        <v>2.170109803681925</v>
+        <v>1.58453412552123</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2215760432034699</v>
+        <v>0.6461663821961849</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2607658343249284</v>
+        <v>0.9369874721741098</v>
       </c>
       <c r="M20">
-        <v>16.14716769943408</v>
+        <v>56.37601717580287</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1727308396150633</v>
+        <v>0.09680542081714449</v>
       </c>
       <c r="D21">
-        <v>0.05692466441909971</v>
+        <v>0.2159458222152892</v>
       </c>
       <c r="E21">
-        <v>0.1267598726412018</v>
+        <v>0.4265587854270478</v>
       </c>
       <c r="F21">
-        <v>3.096159583559853</v>
+        <v>5.004963179606335</v>
       </c>
       <c r="G21">
-        <v>2.698986345493466</v>
+        <v>6.13085502679678</v>
       </c>
       <c r="H21">
-        <v>2.109393897313737</v>
+        <v>2.675552905589171</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.228136471311899</v>
+        <v>1.014711254473212</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2885878147012022</v>
+        <v>1.222781278039704</v>
       </c>
       <c r="M21">
-        <v>17.91198255305932</v>
+        <v>72.98789054804143</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1673398639472481</v>
+        <v>0.09680542081714449</v>
       </c>
       <c r="D22">
-        <v>0.06055879945405707</v>
+        <v>0.2159458222152892</v>
       </c>
       <c r="E22">
-        <v>0.1309435656546043</v>
+        <v>0.4265587854270478</v>
       </c>
       <c r="F22">
-        <v>3.033825786424018</v>
+        <v>5.004963179606335</v>
       </c>
       <c r="G22">
-        <v>2.6551729611366</v>
+        <v>6.13085502679678</v>
       </c>
       <c r="H22">
-        <v>2.072606252795282</v>
+        <v>2.675552905589171</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2327453873880501</v>
+        <v>1.014711254473212</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3068319924022092</v>
+        <v>1.222781278039704</v>
       </c>
       <c r="M22">
-        <v>19.06560467370832</v>
+        <v>72.98789054804143</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1701958129248951</v>
+        <v>0.09680542081714449</v>
       </c>
       <c r="D23">
-        <v>0.05861923410014924</v>
+        <v>0.2159458222152892</v>
       </c>
       <c r="E23">
-        <v>0.1287028053311445</v>
+        <v>0.4265587854270478</v>
       </c>
       <c r="F23">
-        <v>3.066622739519445</v>
+        <v>5.004963179606335</v>
       </c>
       <c r="G23">
-        <v>2.678087612445012</v>
+        <v>6.13085502679678</v>
       </c>
       <c r="H23">
-        <v>2.091972122301001</v>
+        <v>2.675552905589171</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2302552671590661</v>
+        <v>1.014711254473212</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2970887012894536</v>
+        <v>1.222781278039704</v>
       </c>
       <c r="M23">
-        <v>18.4498480588046</v>
+        <v>72.98789054804143</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1814764398780646</v>
+        <v>0.02801388482512923</v>
       </c>
       <c r="D24">
-        <v>0.05127118808395892</v>
+        <v>0.1746998294992324</v>
       </c>
       <c r="E24">
-        <v>0.1203845563578341</v>
+        <v>0.3045334606733903</v>
       </c>
       <c r="F24">
-        <v>3.201076078723531</v>
+        <v>2.843116212531442</v>
       </c>
       <c r="G24">
-        <v>2.775044401796691</v>
+        <v>3.618582929319757</v>
       </c>
       <c r="H24">
-        <v>2.17115023022879</v>
+        <v>1.573822277244545</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2214740540958502</v>
+        <v>0.6424053972028219</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2603120280566316</v>
+        <v>0.9335937879247211</v>
       </c>
       <c r="M24">
-        <v>16.11832044107683</v>
+        <v>56.17573798494027</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1946106935695582</v>
+        <v>0.003517480762793568</v>
       </c>
       <c r="D25">
-        <v>0.04333206439156356</v>
+        <v>0.1339782867112405</v>
       </c>
       <c r="E25">
-        <v>0.1117470877665028</v>
+        <v>0.2169210925722354</v>
       </c>
       <c r="F25">
-        <v>3.367213810894</v>
+        <v>1.619310654491883</v>
       </c>
       <c r="G25">
-        <v>2.90048760628855</v>
+        <v>2.110303126192861</v>
       </c>
       <c r="H25">
-        <v>2.268626304455552</v>
+        <v>0.9529728695564756</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2132994851053667</v>
+        <v>0.4089891954801601</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2208609342761889</v>
+        <v>0.692698534441206</v>
       </c>
       <c r="M25">
-        <v>13.60174103047189</v>
+        <v>41.82016608598133</v>
       </c>
       <c r="N25">
         <v>0</v>
